--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1558.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1558.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.407407938200394</v>
+        <v>1.332116365432739</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.52305018901825</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.872737407684326</v>
       </c>
       <c r="D1">
-        <v>1.26195466274435</v>
+        <v>1.939961433410645</v>
       </c>
       <c r="E1">
-        <v>0.8234382923800957</v>
+        <v>0.879861056804657</v>
       </c>
     </row>
   </sheetData>
